--- a/data/future.xlsx
+++ b/data/future.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\belinda\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\smda\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,45 +23,12 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>洗发沐浴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卫生巾/护垫/成人尿裤</t>
-  </si>
-  <si>
-    <t>家私/皮具护理品</t>
-  </si>
-  <si>
-    <t>香熏用品</t>
-  </si>
-  <si>
-    <t>纸品/湿巾</t>
-  </si>
-  <si>
-    <t>家庭环境清洁剂</t>
-  </si>
-  <si>
-    <t>驱虫用品</t>
-  </si>
-  <si>
-    <t>衣物清洁剂/护理剂</t>
-  </si>
-  <si>
-    <t>室内除臭/芳香用品</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,28 +49,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -133,17 +78,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -427,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -438,109 +377,67 @@
     <col min="1" max="9" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="1">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>85785156</v>
-      </c>
-      <c r="B2" s="2">
-        <v>13496245</v>
-      </c>
-      <c r="C2" s="2">
-        <v>9857561</v>
-      </c>
-      <c r="D2" s="2">
-        <v>6695425</v>
-      </c>
-      <c r="E2" s="2">
-        <v>7177597</v>
-      </c>
-      <c r="F2" s="2">
-        <v>7289906</v>
-      </c>
-      <c r="G2" s="2">
-        <v>4851625</v>
-      </c>
-      <c r="H2" s="2">
-        <v>6148268</v>
-      </c>
-      <c r="I2" s="2">
-        <v>3746208</v>
-      </c>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>635333980</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B2" s="1">
+        <v>297083785</v>
+      </c>
+      <c r="C2" s="1">
         <v>141679615</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D2" s="1">
+        <v>130143905</v>
+      </c>
+      <c r="E2" s="1">
+        <v>115280370</v>
+      </c>
+      <c r="F2" s="1">
+        <v>79968760</v>
+      </c>
+      <c r="G2" s="1">
         <v>70457945</v>
       </c>
-      <c r="D3" s="2">
+      <c r="H2" s="1">
         <v>56205570</v>
       </c>
-      <c r="E3" s="2">
-        <v>297083785</v>
-      </c>
-      <c r="F3" s="2">
-        <v>115280370</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="I2" s="1">
         <v>27251910</v>
       </c>
-      <c r="H3" s="2">
-        <v>130143905</v>
-      </c>
-      <c r="I3" s="2">
-        <v>79968760</v>
-      </c>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/future.xlsx
+++ b/data/future.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17565" windowHeight="8325"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17565" windowHeight="8325" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,10 +25,147 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈尔滨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼和浩特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石家庄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>济南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌鲁木齐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合肥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉萨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南昌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昆明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均降水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -82,7 +221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -366,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I2"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection sqref="A1:I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -378,61 +517,1743 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1">
-        <v>7</v>
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <v>8</v>
+      </c>
+      <c r="I1">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>635333980</v>
-      </c>
-      <c r="B2" s="1">
-        <v>297083785</v>
-      </c>
-      <c r="C2" s="1">
-        <v>141679615</v>
-      </c>
-      <c r="D2" s="1">
-        <v>130143905</v>
-      </c>
-      <c r="E2" s="1">
-        <v>115280370</v>
-      </c>
-      <c r="F2" s="1">
-        <v>79968760</v>
-      </c>
-      <c r="G2" s="1">
-        <v>70457945</v>
-      </c>
-      <c r="H2" s="1">
-        <v>56205570</v>
-      </c>
-      <c r="I2" s="1">
-        <v>27251910</v>
+      <c r="A2">
+        <v>0.50039073647934318</v>
+      </c>
+      <c r="B2">
+        <v>0.11509593605392457</v>
+      </c>
+      <c r="C2">
+        <v>8.5255240893349182E-2</v>
+      </c>
+      <c r="D2">
+        <v>6.8197133432533127E-2</v>
+      </c>
+      <c r="E2">
+        <v>6.7062584669033781E-2</v>
+      </c>
+      <c r="F2">
+        <v>6.611356545687723E-2</v>
+      </c>
+      <c r="G2">
+        <v>4.0958096495844573E-2</v>
+      </c>
+      <c r="H2">
+        <v>2.8979991440248074E-2</v>
+      </c>
+      <c r="I2">
+        <v>2.7946715078846336E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.50039073647934318</v>
+      </c>
+      <c r="B4">
+        <v>0.11509593605392457</v>
+      </c>
+      <c r="C4">
+        <v>8.5255240893349182E-2</v>
+      </c>
+      <c r="D4">
+        <v>6.8197133432533127E-2</v>
+      </c>
+      <c r="E4">
+        <v>6.7062584669033781E-2</v>
+      </c>
+      <c r="F4">
+        <v>6.611356545687723E-2</v>
+      </c>
+      <c r="G4">
+        <v>4.0958096495844573E-2</v>
+      </c>
+      <c r="H4">
+        <v>2.8979991440248074E-2</v>
+      </c>
+      <c r="I4">
+        <v>2.7946715078846336E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.50039073647934318</v>
+      </c>
+      <c r="B6">
+        <v>0.11509593605392457</v>
+      </c>
+      <c r="C6">
+        <v>8.5255240893349182E-2</v>
+      </c>
+      <c r="D6">
+        <v>6.8197133432533127E-2</v>
+      </c>
+      <c r="E6">
+        <v>6.7062584669033781E-2</v>
+      </c>
+      <c r="F6">
+        <v>6.611356545687723E-2</v>
+      </c>
+      <c r="G6">
+        <v>4.0958096495844573E-2</v>
+      </c>
+      <c r="H6">
+        <v>2.8979991440248074E-2</v>
+      </c>
+      <c r="I6">
+        <v>2.7946715078846336E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.51513432455841612</v>
+      </c>
+      <c r="B8">
+        <v>0.12503269163251171</v>
+      </c>
+      <c r="C8">
+        <v>8.2341819638595048E-2</v>
+      </c>
+      <c r="D8">
+        <v>7.2010078936887253E-2</v>
+      </c>
+      <c r="E8">
+        <v>6.6268017613632851E-2</v>
+      </c>
+      <c r="F8">
+        <v>5.1843607564306539E-2</v>
+      </c>
+      <c r="G8">
+        <v>3.1323368828552453E-2</v>
+      </c>
+      <c r="H8">
+        <v>2.8280649500432967E-2</v>
+      </c>
+      <c r="I8">
+        <v>2.7765441726665039E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0.59142601981988152</v>
+      </c>
+      <c r="B10">
+        <v>9.3046755814770302E-2</v>
+      </c>
+      <c r="C10">
+        <v>6.7960686197990838E-2</v>
+      </c>
+      <c r="D10">
+        <v>5.0258579589702833E-2</v>
+      </c>
+      <c r="E10">
+        <v>4.9484291030270112E-2</v>
+      </c>
+      <c r="F10">
+        <v>4.6160067118751064E-2</v>
+      </c>
+      <c r="G10">
+        <v>4.2387819077066707E-2</v>
+      </c>
+      <c r="H10">
+        <v>3.3448412256878481E-2</v>
+      </c>
+      <c r="I10">
+        <v>2.5827369094688114E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0.52891499477646908</v>
+      </c>
+      <c r="B12">
+        <v>9.7527688871540022E-2</v>
+      </c>
+      <c r="C12">
+        <v>8.541529042378436E-2</v>
+      </c>
+      <c r="D12">
+        <v>8.3200351079412135E-2</v>
+      </c>
+      <c r="E12">
+        <v>5.8843765431252443E-2</v>
+      </c>
+      <c r="F12">
+        <v>5.095572802957532E-2</v>
+      </c>
+      <c r="G12">
+        <v>3.7147637922881983E-2</v>
+      </c>
+      <c r="H12">
+        <v>2.9711417508392086E-2</v>
+      </c>
+      <c r="I12">
+        <v>2.8283125956692599E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+      <c r="I13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>0.51513432455841612</v>
+      </c>
+      <c r="B14">
+        <v>0.12503269163251171</v>
+      </c>
+      <c r="C14">
+        <v>8.2341819638595048E-2</v>
+      </c>
+      <c r="D14">
+        <v>7.2010078936887253E-2</v>
+      </c>
+      <c r="E14">
+        <v>6.6268017613632851E-2</v>
+      </c>
+      <c r="F14">
+        <v>5.1843607564306539E-2</v>
+      </c>
+      <c r="G14">
+        <v>3.1323368828552453E-2</v>
+      </c>
+      <c r="H14">
+        <v>2.8280649500432967E-2</v>
+      </c>
+      <c r="I14">
+        <v>2.7765441726665039E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>8</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>0.59142601981988152</v>
+      </c>
+      <c r="B16">
+        <v>9.3046755814770302E-2</v>
+      </c>
+      <c r="C16">
+        <v>6.7960686197990838E-2</v>
+      </c>
+      <c r="D16">
+        <v>5.0258579589702833E-2</v>
+      </c>
+      <c r="E16">
+        <v>4.9484291030270112E-2</v>
+      </c>
+      <c r="F16">
+        <v>4.6160067118751064E-2</v>
+      </c>
+      <c r="G16">
+        <v>4.2387819077066707E-2</v>
+      </c>
+      <c r="H16">
+        <v>3.3448412256878481E-2</v>
+      </c>
+      <c r="I16">
+        <v>2.5827369094688114E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <v>8</v>
+      </c>
+      <c r="I17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>0.50314816752434921</v>
+      </c>
+      <c r="B18">
+        <v>0.13012252558899168</v>
+      </c>
+      <c r="C18">
+        <v>7.5266757305424481E-2</v>
+      </c>
+      <c r="D18">
+        <v>7.478122953534122E-2</v>
+      </c>
+      <c r="E18">
+        <v>6.231122866956082E-2</v>
+      </c>
+      <c r="F18">
+        <v>6.1125227247734309E-2</v>
+      </c>
+      <c r="G18">
+        <v>3.6621192656078508E-2</v>
+      </c>
+      <c r="H18">
+        <v>2.8372212734570173E-2</v>
+      </c>
+      <c r="I18">
+        <v>2.8251458737949622E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19">
+        <v>7</v>
+      </c>
+      <c r="H19">
+        <v>8</v>
+      </c>
+      <c r="I19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>0.50039073647934318</v>
+      </c>
+      <c r="B20">
+        <v>0.11509593605392457</v>
+      </c>
+      <c r="C20">
+        <v>8.5255240893349182E-2</v>
+      </c>
+      <c r="D20">
+        <v>6.8197133432533127E-2</v>
+      </c>
+      <c r="E20">
+        <v>6.7062584669033781E-2</v>
+      </c>
+      <c r="F20">
+        <v>6.611356545687723E-2</v>
+      </c>
+      <c r="G20">
+        <v>4.0958096495844573E-2</v>
+      </c>
+      <c r="H20">
+        <v>2.8979991440248074E-2</v>
+      </c>
+      <c r="I20">
+        <v>2.7946715078846336E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>8</v>
+      </c>
+      <c r="H21">
+        <v>7</v>
+      </c>
+      <c r="I21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0.51513432455841612</v>
+      </c>
+      <c r="B22">
+        <v>0.12503269163251171</v>
+      </c>
+      <c r="C22">
+        <v>8.2341819638595048E-2</v>
+      </c>
+      <c r="D22">
+        <v>7.2010078936887253E-2</v>
+      </c>
+      <c r="E22">
+        <v>6.6268017613632851E-2</v>
+      </c>
+      <c r="F22">
+        <v>5.1843607564306539E-2</v>
+      </c>
+      <c r="G22">
+        <v>3.1323368828552453E-2</v>
+      </c>
+      <c r="H22">
+        <v>2.8280649500432967E-2</v>
+      </c>
+      <c r="I22">
+        <v>2.7765441726665039E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>8</v>
+      </c>
+      <c r="H23">
+        <v>7</v>
+      </c>
+      <c r="I23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0.59142601981988152</v>
+      </c>
+      <c r="B24">
+        <v>9.3046755814770302E-2</v>
+      </c>
+      <c r="C24">
+        <v>6.7960686197990838E-2</v>
+      </c>
+      <c r="D24">
+        <v>5.0258579589702833E-2</v>
+      </c>
+      <c r="E24">
+        <v>4.9484291030270112E-2</v>
+      </c>
+      <c r="F24">
+        <v>4.6160067118751064E-2</v>
+      </c>
+      <c r="G24">
+        <v>4.2387819077066707E-2</v>
+      </c>
+      <c r="H24">
+        <v>3.3448412256878481E-2</v>
+      </c>
+      <c r="I24">
+        <v>2.5827369094688114E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>8</v>
+      </c>
+      <c r="H25">
+        <v>7</v>
+      </c>
+      <c r="I25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0.59142601981988152</v>
+      </c>
+      <c r="B26">
+        <v>9.3046755814770302E-2</v>
+      </c>
+      <c r="C26">
+        <v>6.7960686197990838E-2</v>
+      </c>
+      <c r="D26">
+        <v>5.0258579589702833E-2</v>
+      </c>
+      <c r="E26">
+        <v>4.9484291030270112E-2</v>
+      </c>
+      <c r="F26">
+        <v>4.6160067118751064E-2</v>
+      </c>
+      <c r="G26">
+        <v>4.2387819077066707E-2</v>
+      </c>
+      <c r="H26">
+        <v>3.3448412256878481E-2</v>
+      </c>
+      <c r="I26">
+        <v>2.5827369094688114E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>8</v>
+      </c>
+      <c r="H27">
+        <v>7</v>
+      </c>
+      <c r="I27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0.59142601981988152</v>
+      </c>
+      <c r="B28">
+        <v>9.3046755814770302E-2</v>
+      </c>
+      <c r="C28">
+        <v>6.7960686197990838E-2</v>
+      </c>
+      <c r="D28">
+        <v>5.0258579589702833E-2</v>
+      </c>
+      <c r="E28">
+        <v>4.9484291030270112E-2</v>
+      </c>
+      <c r="F28">
+        <v>4.6160067118751064E-2</v>
+      </c>
+      <c r="G28">
+        <v>4.2387819077066707E-2</v>
+      </c>
+      <c r="H28">
+        <v>3.3448412256878481E-2</v>
+      </c>
+      <c r="I28">
+        <v>2.5827369094688114E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>7</v>
+      </c>
+      <c r="H29">
+        <v>8</v>
+      </c>
+      <c r="I29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0.49522202514037178</v>
+      </c>
+      <c r="B30">
+        <v>0.13035555601499085</v>
+      </c>
+      <c r="C30">
+        <v>8.0410313982399617E-2</v>
+      </c>
+      <c r="D30">
+        <v>6.4504751089412032E-2</v>
+      </c>
+      <c r="E30">
+        <v>6.3699623733404265E-2</v>
+      </c>
+      <c r="F30">
+        <v>6.3384705887442813E-2</v>
+      </c>
+      <c r="G30">
+        <v>3.576528011721837E-2</v>
+      </c>
+      <c r="H30">
+        <v>3.4425237181213091E-2</v>
+      </c>
+      <c r="I30">
+        <v>3.2232506853547171E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>7</v>
+      </c>
+      <c r="H31">
+        <v>8</v>
+      </c>
+      <c r="I31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0.49522202514037178</v>
+      </c>
+      <c r="B32">
+        <v>0.13035555601499085</v>
+      </c>
+      <c r="C32">
+        <v>8.0410313982399617E-2</v>
+      </c>
+      <c r="D32">
+        <v>6.4504751089412032E-2</v>
+      </c>
+      <c r="E32">
+        <v>6.3699623733404265E-2</v>
+      </c>
+      <c r="F32">
+        <v>6.3384705887442813E-2</v>
+      </c>
+      <c r="G32">
+        <v>3.576528011721837E-2</v>
+      </c>
+      <c r="H32">
+        <v>3.4425237181213091E-2</v>
+      </c>
+      <c r="I32">
+        <v>3.2232506853547171E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>7</v>
+      </c>
+      <c r="H33">
+        <v>9</v>
+      </c>
+      <c r="I33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0.50712383259581162</v>
+      </c>
+      <c r="B34">
+        <v>0.10191703626886416</v>
+      </c>
+      <c r="C34">
+        <v>8.3230370434682732E-2</v>
+      </c>
+      <c r="D34">
+        <v>7.5287329587310631E-2</v>
+      </c>
+      <c r="E34">
+        <v>6.4219257923135417E-2</v>
+      </c>
+      <c r="F34">
+        <v>6.0055189253332801E-2</v>
+      </c>
+      <c r="G34">
+        <v>4.0330571591354537E-2</v>
+      </c>
+      <c r="H34">
+        <v>3.5685541241676347E-2</v>
+      </c>
+      <c r="I34">
+        <v>3.2150871103831795E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>7</v>
+      </c>
+      <c r="H35">
+        <v>9</v>
+      </c>
+      <c r="I35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0.50712383259581162</v>
+      </c>
+      <c r="B36">
+        <v>0.10191703626886416</v>
+      </c>
+      <c r="C36">
+        <v>8.3230370434682732E-2</v>
+      </c>
+      <c r="D36">
+        <v>7.5287329587310631E-2</v>
+      </c>
+      <c r="E36">
+        <v>6.4219257923135417E-2</v>
+      </c>
+      <c r="F36">
+        <v>6.0055189253332801E-2</v>
+      </c>
+      <c r="G36">
+        <v>4.0330571591354537E-2</v>
+      </c>
+      <c r="H36">
+        <v>3.5685541241676347E-2</v>
+      </c>
+      <c r="I36">
+        <v>3.2150871103831795E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <v>7</v>
+      </c>
+      <c r="H37">
+        <v>8</v>
+      </c>
+      <c r="I37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0.49522202514037178</v>
+      </c>
+      <c r="B38">
+        <v>0.13035555601499085</v>
+      </c>
+      <c r="C38">
+        <v>8.0410313982399617E-2</v>
+      </c>
+      <c r="D38">
+        <v>6.4504751089412032E-2</v>
+      </c>
+      <c r="E38">
+        <v>6.3699623733404265E-2</v>
+      </c>
+      <c r="F38">
+        <v>6.3384705887442813E-2</v>
+      </c>
+      <c r="G38">
+        <v>3.576528011721837E-2</v>
+      </c>
+      <c r="H38">
+        <v>3.4425237181213091E-2</v>
+      </c>
+      <c r="I38">
+        <v>3.2232506853547171E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>7</v>
+      </c>
+      <c r="H39">
+        <v>9</v>
+      </c>
+      <c r="I39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0.50712383259581162</v>
+      </c>
+      <c r="B40">
+        <v>0.10191703626886416</v>
+      </c>
+      <c r="C40">
+        <v>8.3230370434682732E-2</v>
+      </c>
+      <c r="D40">
+        <v>7.5287329587310631E-2</v>
+      </c>
+      <c r="E40">
+        <v>6.4219257923135417E-2</v>
+      </c>
+      <c r="F40">
+        <v>6.0055189253332801E-2</v>
+      </c>
+      <c r="G40">
+        <v>4.0330571591354537E-2</v>
+      </c>
+      <c r="H40">
+        <v>3.5685541241676347E-2</v>
+      </c>
+      <c r="I40">
+        <v>3.2150871103831795E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>7</v>
+      </c>
+      <c r="H41">
+        <v>9</v>
+      </c>
+      <c r="I41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0.50712383259581162</v>
+      </c>
+      <c r="B42">
+        <v>0.10191703626886416</v>
+      </c>
+      <c r="C42">
+        <v>8.3230370434682732E-2</v>
+      </c>
+      <c r="D42">
+        <v>7.5287329587310631E-2</v>
+      </c>
+      <c r="E42">
+        <v>6.4219257923135417E-2</v>
+      </c>
+      <c r="F42">
+        <v>6.0055189253332801E-2</v>
+      </c>
+      <c r="G42">
+        <v>4.0330571591354537E-2</v>
+      </c>
+      <c r="H42">
+        <v>3.5685541241676347E-2</v>
+      </c>
+      <c r="I42">
+        <v>3.2150871103831795E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>7</v>
+      </c>
+      <c r="H43">
+        <v>9</v>
+      </c>
+      <c r="I43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0.50712383259581162</v>
+      </c>
+      <c r="B44">
+        <v>0.10191703626886416</v>
+      </c>
+      <c r="C44">
+        <v>8.3230370434682732E-2</v>
+      </c>
+      <c r="D44">
+        <v>7.5287329587310631E-2</v>
+      </c>
+      <c r="E44">
+        <v>6.4219257923135417E-2</v>
+      </c>
+      <c r="F44">
+        <v>6.0055189253332801E-2</v>
+      </c>
+      <c r="G44">
+        <v>4.0330571591354537E-2</v>
+      </c>
+      <c r="H44">
+        <v>3.5685541241676347E-2</v>
+      </c>
+      <c r="I44">
+        <v>3.2150871103831795E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="G45">
+        <v>7</v>
+      </c>
+      <c r="H45">
+        <v>8</v>
+      </c>
+      <c r="I45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0.49522202514037178</v>
+      </c>
+      <c r="B46">
+        <v>0.13035555601499085</v>
+      </c>
+      <c r="C46">
+        <v>8.0410313982399617E-2</v>
+      </c>
+      <c r="D46">
+        <v>6.4504751089412032E-2</v>
+      </c>
+      <c r="E46">
+        <v>6.3699623733404265E-2</v>
+      </c>
+      <c r="F46">
+        <v>6.3384705887442813E-2</v>
+      </c>
+      <c r="G46">
+        <v>3.576528011721837E-2</v>
+      </c>
+      <c r="H46">
+        <v>3.4425237181213091E-2</v>
+      </c>
+      <c r="I46">
+        <v>3.2232506853547171E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <v>7</v>
+      </c>
+      <c r="H47">
+        <v>9</v>
+      </c>
+      <c r="I47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0.50712383259581162</v>
+      </c>
+      <c r="B48">
+        <v>0.10191703626886416</v>
+      </c>
+      <c r="C48">
+        <v>8.3230370434682732E-2</v>
+      </c>
+      <c r="D48">
+        <v>7.5287329587310631E-2</v>
+      </c>
+      <c r="E48">
+        <v>6.4219257923135417E-2</v>
+      </c>
+      <c r="F48">
+        <v>6.0055189253332801E-2</v>
+      </c>
+      <c r="G48">
+        <v>4.0330571591354537E-2</v>
+      </c>
+      <c r="H48">
+        <v>3.5685541241676347E-2</v>
+      </c>
+      <c r="I48">
+        <v>3.2150871103831795E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>6</v>
+      </c>
+      <c r="E49">
+        <v>7</v>
+      </c>
+      <c r="F49">
+        <v>9</v>
+      </c>
+      <c r="G49">
+        <v>8</v>
+      </c>
+      <c r="H49">
+        <v>4</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>0.44067708392923571</v>
+      </c>
+      <c r="B50">
+        <v>0.10028679200762586</v>
+      </c>
+      <c r="C50">
+        <v>0.10005790054295047</v>
+      </c>
+      <c r="D50">
+        <v>8.1915067412925396E-2</v>
+      </c>
+      <c r="E50">
+        <v>8.0694306215005909E-2</v>
+      </c>
+      <c r="F50">
+        <v>6.3595079649499078E-2</v>
+      </c>
+      <c r="G50">
+        <v>4.6801393365283807E-2</v>
+      </c>
+      <c r="H50">
+        <v>4.3701251117444329E-2</v>
+      </c>
+      <c r="I50">
+        <v>4.2271125760029463E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>6</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <v>7</v>
+      </c>
+      <c r="H51">
+        <v>9</v>
+      </c>
+      <c r="I51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>0.50712383259581162</v>
+      </c>
+      <c r="B52">
+        <v>0.10191703626886416</v>
+      </c>
+      <c r="C52">
+        <v>8.3230370434682732E-2</v>
+      </c>
+      <c r="D52">
+        <v>7.5287329587310631E-2</v>
+      </c>
+      <c r="E52">
+        <v>6.4219257923135417E-2</v>
+      </c>
+      <c r="F52">
+        <v>6.0055189253332801E-2</v>
+      </c>
+      <c r="G52">
+        <v>4.0330571591354537E-2</v>
+      </c>
+      <c r="H52">
+        <v>3.5685541241676347E-2</v>
+      </c>
+      <c r="I52">
+        <v>3.2150871103831795E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>7</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>6</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
+      </c>
+      <c r="H53">
+        <v>8</v>
+      </c>
+      <c r="I53">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>0.63584088159899155</v>
+      </c>
+      <c r="B54">
+        <v>6.2146514819919847E-2</v>
+      </c>
+      <c r="C54">
+        <v>6.1044771776189589E-2</v>
+      </c>
+      <c r="D54">
+        <v>4.9592522859988677E-2</v>
+      </c>
+      <c r="E54">
+        <v>4.8249769636265379E-2</v>
+      </c>
+      <c r="F54">
+        <v>4.2270415911025497E-2</v>
+      </c>
+      <c r="G54">
+        <v>4.2084606588613252E-2</v>
+      </c>
+      <c r="H54">
+        <v>3.5611613056628633E-2</v>
+      </c>
+      <c r="I54">
+        <v>2.3158903752377575E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>8</v>
+      </c>
+      <c r="D55">
+        <v>9</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>6</v>
+      </c>
+      <c r="G55">
+        <v>7</v>
+      </c>
+      <c r="H55">
+        <v>4</v>
+      </c>
+      <c r="I55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>0.37164980008467752</v>
+      </c>
+      <c r="B56">
+        <v>0.21650645059800652</v>
+      </c>
+      <c r="C56">
+        <v>8.9078748873696684E-2</v>
+      </c>
+      <c r="D56">
+        <v>7.9456934869910373E-2</v>
+      </c>
+      <c r="E56">
+        <v>7.3675864940436389E-2</v>
+      </c>
+      <c r="F56">
+        <v>6.9466298078676061E-2</v>
+      </c>
+      <c r="G56">
+        <v>4.5904006814899978E-2</v>
+      </c>
+      <c r="H56">
+        <v>2.901326227441808E-2</v>
+      </c>
+      <c r="I56">
+        <v>2.5248633465278395E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>8</v>
+      </c>
+      <c r="D57">
+        <v>9</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>6</v>
+      </c>
+      <c r="G57">
+        <v>7</v>
+      </c>
+      <c r="H57">
+        <v>4</v>
+      </c>
+      <c r="I57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>0.37164980008467752</v>
+      </c>
+      <c r="B58">
+        <v>0.21650645059800652</v>
+      </c>
+      <c r="C58">
+        <v>8.9078748873696684E-2</v>
+      </c>
+      <c r="D58">
+        <v>7.9456934869910373E-2</v>
+      </c>
+      <c r="E58">
+        <v>7.3675864940436389E-2</v>
+      </c>
+      <c r="F58">
+        <v>6.9466298078676061E-2</v>
+      </c>
+      <c r="G58">
+        <v>4.5904006814899978E-2</v>
+      </c>
+      <c r="H58">
+        <v>2.901326227441808E-2</v>
+      </c>
+      <c r="I58">
+        <v>2.5248633465278395E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>6</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>7</v>
+      </c>
+      <c r="E59">
+        <v>5</v>
+      </c>
+      <c r="F59">
+        <v>4</v>
+      </c>
+      <c r="G59">
+        <v>8</v>
+      </c>
+      <c r="H59">
+        <v>3</v>
+      </c>
+      <c r="I59">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>0.51448194401540948</v>
+      </c>
+      <c r="B60">
+        <v>9.3331038648932149E-2</v>
+      </c>
+      <c r="C60">
+        <v>8.3007785426957845E-2</v>
+      </c>
+      <c r="D60">
+        <v>6.5945665131609127E-2</v>
+      </c>
+      <c r="E60">
+        <v>6.0096489529701785E-2</v>
+      </c>
+      <c r="F60">
+        <v>5.6019080412188255E-2</v>
+      </c>
+      <c r="G60">
+        <v>4.6734297198250223E-2</v>
+      </c>
+      <c r="H60">
+        <v>4.6559689538111917E-2</v>
+      </c>
+      <c r="I60">
+        <v>3.3824010098839216E-2</v>
       </c>
     </row>
   </sheetData>
@@ -440,4 +2261,2147 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <f>A2+2</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f t="shared" ref="A4:A31" si="0">A3+2</f>
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>-9.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>17.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I60"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <v>8</v>
+      </c>
+      <c r="I1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>50.039073647934316</v>
+      </c>
+      <c r="B2" s="1">
+        <v>11.509593605392457</v>
+      </c>
+      <c r="C2" s="1">
+        <v>8.5255240893349189</v>
+      </c>
+      <c r="D2" s="1">
+        <v>6.819713343253313</v>
+      </c>
+      <c r="E2" s="1">
+        <v>6.7062584669033782</v>
+      </c>
+      <c r="F2" s="1">
+        <v>6.6113565456877232</v>
+      </c>
+      <c r="G2" s="1">
+        <v>4.0958096495844574</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2.8979991440248076</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2.7946715078846336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>50.039073647934316</v>
+      </c>
+      <c r="B4" s="1">
+        <v>11.509593605392457</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8.5255240893349189</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6.819713343253313</v>
+      </c>
+      <c r="E4" s="1">
+        <v>6.7062584669033782</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6.6113565456877232</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4.0958096495844574</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2.8979991440248076</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2.7946715078846336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>50.039073647934316</v>
+      </c>
+      <c r="B6" s="1">
+        <v>11.509593605392457</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8.5255240893349189</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6.819713343253313</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6.7062584669033782</v>
+      </c>
+      <c r="F6" s="1">
+        <v>6.6113565456877232</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4.0958096495844574</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2.8979991440248076</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2.7946715078846336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>51.51343245584161</v>
+      </c>
+      <c r="B8" s="1">
+        <v>12.50326916325117</v>
+      </c>
+      <c r="C8" s="1">
+        <v>8.2341819638595055</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7.2010078936887254</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6.6268017613632848</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5.184360756430654</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3.1323368828552454</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2.8280649500432968</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2.7765441726665041</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>59.14260198198815</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9.3046755814770297</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6.7960686197990841</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5.025857958970283</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4.9484291030270109</v>
+      </c>
+      <c r="F10" s="1">
+        <v>4.616006711875106</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4.2387819077066711</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3.3448412256878481</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2.5827369094688115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>52.89149947764691</v>
+      </c>
+      <c r="B12" s="1">
+        <v>9.7527688871540015</v>
+      </c>
+      <c r="C12" s="1">
+        <v>8.5415290423784356</v>
+      </c>
+      <c r="D12" s="1">
+        <v>8.320035107941214</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5.8843765431252439</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5.0955728029575322</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3.7147637922881982</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2.9711417508392084</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2.8283125956692601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+      <c r="I13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>51.51343245584161</v>
+      </c>
+      <c r="B14" s="1">
+        <v>12.50326916325117</v>
+      </c>
+      <c r="C14" s="1">
+        <v>8.2341819638595055</v>
+      </c>
+      <c r="D14" s="1">
+        <v>7.2010078936887254</v>
+      </c>
+      <c r="E14" s="1">
+        <v>6.6268017613632848</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5.184360756430654</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3.1323368828552454</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2.8280649500432968</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2.7765441726665041</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>8</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>59.14260198198815</v>
+      </c>
+      <c r="B16" s="1">
+        <v>9.3046755814770297</v>
+      </c>
+      <c r="C16" s="1">
+        <v>6.7960686197990841</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5.025857958970283</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4.9484291030270109</v>
+      </c>
+      <c r="F16" s="1">
+        <v>4.616006711875106</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4.2387819077066711</v>
+      </c>
+      <c r="H16" s="1">
+        <v>3.3448412256878481</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2.5827369094688115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <v>8</v>
+      </c>
+      <c r="I17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>50.314816752434922</v>
+      </c>
+      <c r="B18" s="1">
+        <v>13.012252558899167</v>
+      </c>
+      <c r="C18" s="1">
+        <v>7.5266757305424479</v>
+      </c>
+      <c r="D18" s="1">
+        <v>7.4781229535341218</v>
+      </c>
+      <c r="E18" s="1">
+        <v>6.2311228669560821</v>
+      </c>
+      <c r="F18" s="1">
+        <v>6.1125227247734308</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3.6621192656078509</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2.8372212734570175</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2.8251458737949622</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19">
+        <v>7</v>
+      </c>
+      <c r="H19">
+        <v>8</v>
+      </c>
+      <c r="I19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>50.039073647934316</v>
+      </c>
+      <c r="B20" s="1">
+        <v>11.509593605392457</v>
+      </c>
+      <c r="C20" s="1">
+        <v>8.5255240893349189</v>
+      </c>
+      <c r="D20" s="1">
+        <v>6.819713343253313</v>
+      </c>
+      <c r="E20" s="1">
+        <v>6.7062584669033782</v>
+      </c>
+      <c r="F20" s="1">
+        <v>6.6113565456877232</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4.0958096495844574</v>
+      </c>
+      <c r="H20" s="1">
+        <v>2.8979991440248076</v>
+      </c>
+      <c r="I20" s="1">
+        <v>2.7946715078846336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>8</v>
+      </c>
+      <c r="H21">
+        <v>7</v>
+      </c>
+      <c r="I21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>51.51343245584161</v>
+      </c>
+      <c r="B22" s="1">
+        <v>12.50326916325117</v>
+      </c>
+      <c r="C22" s="1">
+        <v>8.2341819638595055</v>
+      </c>
+      <c r="D22" s="1">
+        <v>7.2010078936887254</v>
+      </c>
+      <c r="E22" s="1">
+        <v>6.6268017613632848</v>
+      </c>
+      <c r="F22" s="1">
+        <v>5.184360756430654</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3.1323368828552454</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2.8280649500432968</v>
+      </c>
+      <c r="I22" s="1">
+        <v>2.7765441726665041</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>8</v>
+      </c>
+      <c r="H23">
+        <v>7</v>
+      </c>
+      <c r="I23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>59.14260198198815</v>
+      </c>
+      <c r="B24" s="1">
+        <v>9.3046755814770297</v>
+      </c>
+      <c r="C24" s="1">
+        <v>6.7960686197990841</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5.025857958970283</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4.9484291030270109</v>
+      </c>
+      <c r="F24" s="1">
+        <v>4.616006711875106</v>
+      </c>
+      <c r="G24" s="1">
+        <v>4.2387819077066711</v>
+      </c>
+      <c r="H24" s="1">
+        <v>3.3448412256878481</v>
+      </c>
+      <c r="I24" s="1">
+        <v>2.5827369094688115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>8</v>
+      </c>
+      <c r="H25">
+        <v>7</v>
+      </c>
+      <c r="I25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>59.14260198198815</v>
+      </c>
+      <c r="B26" s="1">
+        <v>9.3046755814770297</v>
+      </c>
+      <c r="C26" s="1">
+        <v>6.7960686197990841</v>
+      </c>
+      <c r="D26" s="1">
+        <v>5.025857958970283</v>
+      </c>
+      <c r="E26" s="1">
+        <v>4.9484291030270109</v>
+      </c>
+      <c r="F26" s="1">
+        <v>4.616006711875106</v>
+      </c>
+      <c r="G26" s="1">
+        <v>4.2387819077066711</v>
+      </c>
+      <c r="H26" s="1">
+        <v>3.3448412256878481</v>
+      </c>
+      <c r="I26" s="1">
+        <v>2.5827369094688115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>8</v>
+      </c>
+      <c r="H27">
+        <v>7</v>
+      </c>
+      <c r="I27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>59.14260198198815</v>
+      </c>
+      <c r="B28" s="1">
+        <v>9.3046755814770297</v>
+      </c>
+      <c r="C28" s="1">
+        <v>6.7960686197990841</v>
+      </c>
+      <c r="D28" s="1">
+        <v>5.025857958970283</v>
+      </c>
+      <c r="E28" s="1">
+        <v>4.9484291030270109</v>
+      </c>
+      <c r="F28" s="1">
+        <v>4.616006711875106</v>
+      </c>
+      <c r="G28" s="1">
+        <v>4.2387819077066711</v>
+      </c>
+      <c r="H28" s="1">
+        <v>3.3448412256878481</v>
+      </c>
+      <c r="I28" s="1">
+        <v>2.5827369094688115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>7</v>
+      </c>
+      <c r="H29">
+        <v>8</v>
+      </c>
+      <c r="I29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>49.522202514037176</v>
+      </c>
+      <c r="B30" s="1">
+        <v>13.035555601499086</v>
+      </c>
+      <c r="C30" s="1">
+        <v>8.0410313982399622</v>
+      </c>
+      <c r="D30" s="1">
+        <v>6.4504751089412036</v>
+      </c>
+      <c r="E30" s="1">
+        <v>6.3699623733404263</v>
+      </c>
+      <c r="F30" s="1">
+        <v>6.3384705887442809</v>
+      </c>
+      <c r="G30" s="1">
+        <v>3.576528011721837</v>
+      </c>
+      <c r="H30" s="1">
+        <v>3.4425237181213091</v>
+      </c>
+      <c r="I30" s="1">
+        <v>3.2232506853547171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>7</v>
+      </c>
+      <c r="H31">
+        <v>8</v>
+      </c>
+      <c r="I31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>49.522202514037176</v>
+      </c>
+      <c r="B32" s="1">
+        <v>13.035555601499086</v>
+      </c>
+      <c r="C32" s="1">
+        <v>8.0410313982399622</v>
+      </c>
+      <c r="D32" s="1">
+        <v>6.4504751089412036</v>
+      </c>
+      <c r="E32" s="1">
+        <v>6.3699623733404263</v>
+      </c>
+      <c r="F32" s="1">
+        <v>6.3384705887442809</v>
+      </c>
+      <c r="G32" s="1">
+        <v>3.576528011721837</v>
+      </c>
+      <c r="H32" s="1">
+        <v>3.4425237181213091</v>
+      </c>
+      <c r="I32" s="1">
+        <v>3.2232506853547171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>7</v>
+      </c>
+      <c r="H33">
+        <v>9</v>
+      </c>
+      <c r="I33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>50.712383259581159</v>
+      </c>
+      <c r="B34" s="1">
+        <v>10.191703626886415</v>
+      </c>
+      <c r="C34" s="1">
+        <v>8.3230370434682737</v>
+      </c>
+      <c r="D34" s="1">
+        <v>7.5287329587310632</v>
+      </c>
+      <c r="E34" s="1">
+        <v>6.4219257923135418</v>
+      </c>
+      <c r="F34" s="1">
+        <v>6.0055189253332797</v>
+      </c>
+      <c r="G34" s="1">
+        <v>4.0330571591354536</v>
+      </c>
+      <c r="H34" s="1">
+        <v>3.5685541241676346</v>
+      </c>
+      <c r="I34" s="1">
+        <v>3.2150871103831795</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>7</v>
+      </c>
+      <c r="H35">
+        <v>9</v>
+      </c>
+      <c r="I35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>50.712383259581159</v>
+      </c>
+      <c r="B36" s="1">
+        <v>10.191703626886415</v>
+      </c>
+      <c r="C36" s="1">
+        <v>8.3230370434682737</v>
+      </c>
+      <c r="D36" s="1">
+        <v>7.5287329587310632</v>
+      </c>
+      <c r="E36" s="1">
+        <v>6.4219257923135418</v>
+      </c>
+      <c r="F36" s="1">
+        <v>6.0055189253332797</v>
+      </c>
+      <c r="G36" s="1">
+        <v>4.0330571591354536</v>
+      </c>
+      <c r="H36" s="1">
+        <v>3.5685541241676346</v>
+      </c>
+      <c r="I36" s="1">
+        <v>3.2150871103831795</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <v>7</v>
+      </c>
+      <c r="H37">
+        <v>8</v>
+      </c>
+      <c r="I37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>49.522202514037176</v>
+      </c>
+      <c r="B38" s="1">
+        <v>13.035555601499086</v>
+      </c>
+      <c r="C38" s="1">
+        <v>8.0410313982399622</v>
+      </c>
+      <c r="D38" s="1">
+        <v>6.4504751089412036</v>
+      </c>
+      <c r="E38" s="1">
+        <v>6.3699623733404263</v>
+      </c>
+      <c r="F38" s="1">
+        <v>6.3384705887442809</v>
+      </c>
+      <c r="G38" s="1">
+        <v>3.576528011721837</v>
+      </c>
+      <c r="H38" s="1">
+        <v>3.4425237181213091</v>
+      </c>
+      <c r="I38" s="1">
+        <v>3.2232506853547171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>7</v>
+      </c>
+      <c r="H39">
+        <v>9</v>
+      </c>
+      <c r="I39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>50.712383259581159</v>
+      </c>
+      <c r="B40" s="1">
+        <v>10.191703626886415</v>
+      </c>
+      <c r="C40" s="1">
+        <v>8.3230370434682737</v>
+      </c>
+      <c r="D40" s="1">
+        <v>7.5287329587310632</v>
+      </c>
+      <c r="E40" s="1">
+        <v>6.4219257923135418</v>
+      </c>
+      <c r="F40" s="1">
+        <v>6.0055189253332797</v>
+      </c>
+      <c r="G40" s="1">
+        <v>4.0330571591354536</v>
+      </c>
+      <c r="H40" s="1">
+        <v>3.5685541241676346</v>
+      </c>
+      <c r="I40" s="1">
+        <v>3.2150871103831795</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>7</v>
+      </c>
+      <c r="H41">
+        <v>9</v>
+      </c>
+      <c r="I41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>50.712383259581159</v>
+      </c>
+      <c r="B42" s="1">
+        <v>10.191703626886415</v>
+      </c>
+      <c r="C42" s="1">
+        <v>8.3230370434682737</v>
+      </c>
+      <c r="D42" s="1">
+        <v>7.5287329587310632</v>
+      </c>
+      <c r="E42" s="1">
+        <v>6.4219257923135418</v>
+      </c>
+      <c r="F42" s="1">
+        <v>6.0055189253332797</v>
+      </c>
+      <c r="G42" s="1">
+        <v>4.0330571591354536</v>
+      </c>
+      <c r="H42" s="1">
+        <v>3.5685541241676346</v>
+      </c>
+      <c r="I42" s="1">
+        <v>3.2150871103831795</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>7</v>
+      </c>
+      <c r="H43">
+        <v>9</v>
+      </c>
+      <c r="I43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>50.712383259581159</v>
+      </c>
+      <c r="B44" s="1">
+        <v>10.191703626886415</v>
+      </c>
+      <c r="C44" s="1">
+        <v>8.3230370434682737</v>
+      </c>
+      <c r="D44" s="1">
+        <v>7.5287329587310632</v>
+      </c>
+      <c r="E44" s="1">
+        <v>6.4219257923135418</v>
+      </c>
+      <c r="F44" s="1">
+        <v>6.0055189253332797</v>
+      </c>
+      <c r="G44" s="1">
+        <v>4.0330571591354536</v>
+      </c>
+      <c r="H44" s="1">
+        <v>3.5685541241676346</v>
+      </c>
+      <c r="I44" s="1">
+        <v>3.2150871103831795</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="G45">
+        <v>7</v>
+      </c>
+      <c r="H45">
+        <v>8</v>
+      </c>
+      <c r="I45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>49.522202514037176</v>
+      </c>
+      <c r="B46" s="1">
+        <v>13.035555601499086</v>
+      </c>
+      <c r="C46" s="1">
+        <v>8.0410313982399622</v>
+      </c>
+      <c r="D46" s="1">
+        <v>6.4504751089412036</v>
+      </c>
+      <c r="E46" s="1">
+        <v>6.3699623733404263</v>
+      </c>
+      <c r="F46" s="1">
+        <v>6.3384705887442809</v>
+      </c>
+      <c r="G46" s="1">
+        <v>3.576528011721837</v>
+      </c>
+      <c r="H46" s="1">
+        <v>3.4425237181213091</v>
+      </c>
+      <c r="I46" s="1">
+        <v>3.2232506853547171</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <v>7</v>
+      </c>
+      <c r="H47">
+        <v>9</v>
+      </c>
+      <c r="I47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>50.712383259581159</v>
+      </c>
+      <c r="B48" s="1">
+        <v>10.191703626886415</v>
+      </c>
+      <c r="C48" s="1">
+        <v>8.3230370434682737</v>
+      </c>
+      <c r="D48" s="1">
+        <v>7.5287329587310632</v>
+      </c>
+      <c r="E48" s="1">
+        <v>6.4219257923135418</v>
+      </c>
+      <c r="F48" s="1">
+        <v>6.0055189253332797</v>
+      </c>
+      <c r="G48" s="1">
+        <v>4.0330571591354536</v>
+      </c>
+      <c r="H48" s="1">
+        <v>3.5685541241676346</v>
+      </c>
+      <c r="I48" s="1">
+        <v>3.2150871103831795</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>6</v>
+      </c>
+      <c r="E49">
+        <v>7</v>
+      </c>
+      <c r="F49">
+        <v>9</v>
+      </c>
+      <c r="G49">
+        <v>8</v>
+      </c>
+      <c r="H49">
+        <v>4</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>44.067708392923571</v>
+      </c>
+      <c r="B50" s="1">
+        <v>10.028679200762586</v>
+      </c>
+      <c r="C50" s="1">
+        <v>10.005790054295046</v>
+      </c>
+      <c r="D50" s="1">
+        <v>8.1915067412925389</v>
+      </c>
+      <c r="E50" s="1">
+        <v>8.0694306215005902</v>
+      </c>
+      <c r="F50" s="1">
+        <v>6.3595079649499082</v>
+      </c>
+      <c r="G50" s="1">
+        <v>4.6801393365283808</v>
+      </c>
+      <c r="H50" s="1">
+        <v>4.3701251117444331</v>
+      </c>
+      <c r="I50" s="1">
+        <v>4.2271125760029467</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>6</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <v>7</v>
+      </c>
+      <c r="H51">
+        <v>9</v>
+      </c>
+      <c r="I51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>50.712383259581159</v>
+      </c>
+      <c r="B52" s="1">
+        <v>10.191703626886415</v>
+      </c>
+      <c r="C52" s="1">
+        <v>8.3230370434682737</v>
+      </c>
+      <c r="D52" s="1">
+        <v>7.5287329587310632</v>
+      </c>
+      <c r="E52" s="1">
+        <v>6.4219257923135418</v>
+      </c>
+      <c r="F52" s="1">
+        <v>6.0055189253332797</v>
+      </c>
+      <c r="G52" s="1">
+        <v>4.0330571591354536</v>
+      </c>
+      <c r="H52" s="1">
+        <v>3.5685541241676346</v>
+      </c>
+      <c r="I52" s="1">
+        <v>3.2150871103831795</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>7</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>6</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
+      </c>
+      <c r="H53">
+        <v>8</v>
+      </c>
+      <c r="I53">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>63.584088159899153</v>
+      </c>
+      <c r="B54" s="1">
+        <v>6.2146514819919849</v>
+      </c>
+      <c r="C54" s="1">
+        <v>6.1044771776189588</v>
+      </c>
+      <c r="D54" s="1">
+        <v>4.9592522859988675</v>
+      </c>
+      <c r="E54" s="1">
+        <v>4.8249769636265381</v>
+      </c>
+      <c r="F54" s="1">
+        <v>4.2270415911025498</v>
+      </c>
+      <c r="G54" s="1">
+        <v>4.2084606588613251</v>
+      </c>
+      <c r="H54" s="1">
+        <v>3.5611613056628633</v>
+      </c>
+      <c r="I54" s="1">
+        <v>2.3158903752377573</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>8</v>
+      </c>
+      <c r="D55">
+        <v>9</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>6</v>
+      </c>
+      <c r="G55">
+        <v>7</v>
+      </c>
+      <c r="H55">
+        <v>4</v>
+      </c>
+      <c r="I55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>37.164980008467751</v>
+      </c>
+      <c r="B56" s="1">
+        <v>21.650645059800652</v>
+      </c>
+      <c r="C56" s="1">
+        <v>8.9078748873696689</v>
+      </c>
+      <c r="D56" s="1">
+        <v>7.9456934869910372</v>
+      </c>
+      <c r="E56" s="1">
+        <v>7.3675864940436391</v>
+      </c>
+      <c r="F56" s="1">
+        <v>6.9466298078676063</v>
+      </c>
+      <c r="G56" s="1">
+        <v>4.5904006814899976</v>
+      </c>
+      <c r="H56" s="1">
+        <v>2.9013262274418081</v>
+      </c>
+      <c r="I56" s="1">
+        <v>2.5248633465278396</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>8</v>
+      </c>
+      <c r="D57">
+        <v>9</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>6</v>
+      </c>
+      <c r="G57">
+        <v>7</v>
+      </c>
+      <c r="H57">
+        <v>4</v>
+      </c>
+      <c r="I57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>37.164980008467751</v>
+      </c>
+      <c r="B58" s="1">
+        <v>21.650645059800652</v>
+      </c>
+      <c r="C58" s="1">
+        <v>8.9078748873696689</v>
+      </c>
+      <c r="D58" s="1">
+        <v>7.9456934869910372</v>
+      </c>
+      <c r="E58" s="1">
+        <v>7.3675864940436391</v>
+      </c>
+      <c r="F58" s="1">
+        <v>6.9466298078676063</v>
+      </c>
+      <c r="G58" s="1">
+        <v>4.5904006814899976</v>
+      </c>
+      <c r="H58" s="1">
+        <v>2.9013262274418081</v>
+      </c>
+      <c r="I58" s="1">
+        <v>2.5248633465278396</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>6</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>7</v>
+      </c>
+      <c r="E59">
+        <v>5</v>
+      </c>
+      <c r="F59">
+        <v>4</v>
+      </c>
+      <c r="G59">
+        <v>8</v>
+      </c>
+      <c r="H59">
+        <v>3</v>
+      </c>
+      <c r="I59">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>51.448194401540945</v>
+      </c>
+      <c r="B60" s="1">
+        <v>9.3331038648932143</v>
+      </c>
+      <c r="C60" s="1">
+        <v>8.3007785426957845</v>
+      </c>
+      <c r="D60" s="1">
+        <v>6.5945665131609124</v>
+      </c>
+      <c r="E60" s="1">
+        <v>6.0096489529701786</v>
+      </c>
+      <c r="F60" s="1">
+        <v>5.6019080412188256</v>
+      </c>
+      <c r="G60" s="1">
+        <v>4.6734297198250223</v>
+      </c>
+      <c r="H60" s="1">
+        <v>4.6559689538111915</v>
+      </c>
+      <c r="I60" s="1">
+        <v>3.3824010098839214</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/future.xlsx
+++ b/data/future.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17565" windowHeight="8325" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17565" windowHeight="8325" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="51">
   <si>
     <t>北京</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,7 +156,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>平均降水</t>
+    <t>天气状况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大雾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2265,10 +2337,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D60" sqref="D2:D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2294,353 +2366,443 @@
       <c r="C2">
         <v>-18</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <f>A2+2</f>
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>-14</v>
+      <c r="D2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" ref="A4:A31" si="0">A3+2</f>
-        <v>4</v>
+        <f>A2+2</f>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>-9.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>-1</v>
+        <v>-14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>A4+2</f>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>-4</v>
+        <v>-9.5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f>A6+2</f>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>0.5</v>
+        <v>-1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>A8+2</f>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>-10</v>
+        <v>1.5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f>A10+2</f>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>0.5</v>
+        <v>-4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <f>A12+2</f>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
+        <v>-0.5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
-        <f t="shared" si="0"/>
+        <f>A14+2</f>
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>0.5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f>A16+2</f>
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f>A18+2</f>
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>-10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f>A20+2</f>
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>-1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f>A22+2</f>
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <v>0.5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f>A24+2</f>
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f>A26+2</f>
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <f>A28+2</f>
         <v>28</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B30" t="s">
         <v>16</v>
       </c>
-      <c r="C16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <f t="shared" si="0"/>
+      <c r="C30">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f>A30+2</f>
         <v>30</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B32" t="s">
         <v>17</v>
       </c>
-      <c r="C17">
+      <c r="C32">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <f t="shared" si="0"/>
+      <c r="D32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f>A32+2</f>
         <v>32</v>
       </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18">
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <f t="shared" si="0"/>
+      <c r="D34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f>A34+2</f>
         <v>34</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B36" t="s">
         <v>18</v>
       </c>
-      <c r="C19">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <f t="shared" si="0"/>
+      <c r="C36">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f>A36+2</f>
         <v>36</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B38" t="s">
         <v>19</v>
       </c>
-      <c r="C20">
+      <c r="C38">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <f t="shared" si="0"/>
+      <c r="D38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <f>A38+2</f>
         <v>38</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B40" t="s">
         <v>20</v>
       </c>
-      <c r="C21">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <f t="shared" si="0"/>
+      <c r="C40">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <f>A40+2</f>
         <v>40</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B42" t="s">
         <v>21</v>
       </c>
-      <c r="C22">
+      <c r="C42">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <f t="shared" si="0"/>
+      <c r="D42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <f>A42+2</f>
         <v>42</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B44" t="s">
         <v>22</v>
       </c>
-      <c r="C23">
+      <c r="C44">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <f t="shared" si="0"/>
+      <c r="D44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <f>A44+2</f>
         <v>44</v>
       </c>
-      <c r="B24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24">
+      <c r="B46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <f t="shared" si="0"/>
+      <c r="D46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <f>A46+2</f>
         <v>46</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B48" t="s">
         <v>23</v>
       </c>
-      <c r="C25">
+      <c r="C48">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <f t="shared" si="0"/>
+      <c r="D48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <f>A48+2</f>
         <v>48</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B50" t="s">
         <v>24</v>
       </c>
-      <c r="C26">
+      <c r="C50">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <f t="shared" si="0"/>
+      <c r="D50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <f>A50+2</f>
         <v>50</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B52" t="s">
         <v>25</v>
       </c>
-      <c r="C27">
+      <c r="C52">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <f t="shared" si="0"/>
+      <c r="D52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <f>A52+2</f>
         <v>52</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B54" t="s">
         <v>26</v>
       </c>
-      <c r="C28">
+      <c r="C54">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <f t="shared" si="0"/>
+      <c r="D54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <f>A54+2</f>
         <v>54</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B56" t="s">
         <v>27</v>
       </c>
-      <c r="C29">
+      <c r="C56">
         <v>19</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <f t="shared" si="0"/>
+      <c r="D56" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <f>A56+2</f>
         <v>56</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B58" t="s">
         <v>28</v>
       </c>
-      <c r="C30">
+      <c r="C58">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <f t="shared" si="0"/>
+      <c r="D58" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <f t="shared" ref="A60" si="0">A58+2</f>
         <v>58</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B60" t="s">
         <v>29</v>
       </c>
-      <c r="C31">
+      <c r="C60">
         <v>17.5</v>
+      </c>
+      <c r="D60" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2652,15 +2814,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -2688,8 +2850,11 @@
       <c r="I1">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>50.039073647934316</v>
       </c>
@@ -2718,7 +2883,7 @@
         <v>2.7946715078846336</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2746,8 +2911,11 @@
       <c r="I3">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>50.039073647934316</v>
       </c>
@@ -2776,7 +2944,7 @@
         <v>2.7946715078846336</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2804,8 +2972,11 @@
       <c r="I5">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>50.039073647934316</v>
       </c>
@@ -2834,7 +3005,7 @@
         <v>2.7946715078846336</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2862,8 +3033,11 @@
       <c r="I7">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>51.51343245584161</v>
       </c>
@@ -2892,7 +3066,7 @@
         <v>2.7765441726665041</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2920,8 +3094,11 @@
       <c r="I9">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>59.14260198198815</v>
       </c>
@@ -2950,7 +3127,7 @@
         <v>2.5827369094688115</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2978,8 +3155,11 @@
       <c r="I11">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>52.89149947764691</v>
       </c>
@@ -3008,7 +3188,7 @@
         <v>2.8283125956692601</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -3036,8 +3216,11 @@
       <c r="I13">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>51.51343245584161</v>
       </c>
@@ -3066,7 +3249,7 @@
         <v>2.7765441726665041</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -3094,8 +3277,11 @@
       <c r="I15">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>59.14260198198815</v>
       </c>
@@ -3124,7 +3310,7 @@
         <v>2.5827369094688115</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -3152,8 +3338,11 @@
       <c r="I17">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>50.314816752434922</v>
       </c>
@@ -3182,7 +3371,7 @@
         <v>2.8251458737949622</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -3210,8 +3399,11 @@
       <c r="I19">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>50.039073647934316</v>
       </c>
@@ -3240,7 +3432,7 @@
         <v>2.7946715078846336</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -3268,8 +3460,11 @@
       <c r="I21">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>51.51343245584161</v>
       </c>
@@ -3298,7 +3493,7 @@
         <v>2.7765441726665041</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -3326,8 +3521,11 @@
       <c r="I23">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>59.14260198198815</v>
       </c>
@@ -3356,7 +3554,7 @@
         <v>2.5827369094688115</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
@@ -3384,8 +3582,11 @@
       <c r="I25">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>59.14260198198815</v>
       </c>
@@ -3414,7 +3615,7 @@
         <v>2.5827369094688115</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>
@@ -3442,8 +3643,11 @@
       <c r="I27">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>59.14260198198815</v>
       </c>
@@ -3472,7 +3676,7 @@
         <v>2.5827369094688115</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -3500,8 +3704,11 @@
       <c r="I29">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>49.522202514037176</v>
       </c>
@@ -3530,7 +3737,7 @@
         <v>3.2232506853547171</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1</v>
       </c>
@@ -3558,8 +3765,11 @@
       <c r="I31">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>49.522202514037176</v>
       </c>
@@ -3588,7 +3798,7 @@
         <v>3.2232506853547171</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
@@ -3616,8 +3826,11 @@
       <c r="I33">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>50.712383259581159</v>
       </c>
@@ -3646,7 +3859,7 @@
         <v>3.2150871103831795</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
@@ -3674,8 +3887,11 @@
       <c r="I35">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>50.712383259581159</v>
       </c>
@@ -3704,7 +3920,7 @@
         <v>3.2150871103831795</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
@@ -3732,8 +3948,11 @@
       <c r="I37">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>49.522202514037176</v>
       </c>
@@ -3762,7 +3981,7 @@
         <v>3.2232506853547171</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
@@ -3790,8 +4009,11 @@
       <c r="I39">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>50.712383259581159</v>
       </c>
@@ -3820,7 +4042,7 @@
         <v>3.2150871103831795</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1</v>
       </c>
@@ -3848,8 +4070,11 @@
       <c r="I41">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>50.712383259581159</v>
       </c>
@@ -3878,7 +4103,7 @@
         <v>3.2150871103831795</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1</v>
       </c>
@@ -3906,8 +4131,11 @@
       <c r="I43">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>50.712383259581159</v>
       </c>
@@ -3936,7 +4164,7 @@
         <v>3.2150871103831795</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1</v>
       </c>
@@ -3964,8 +4192,11 @@
       <c r="I45">
         <v>9</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>49.522202514037176</v>
       </c>
@@ -3994,7 +4225,7 @@
         <v>3.2232506853547171</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1</v>
       </c>
@@ -4022,8 +4253,11 @@
       <c r="I47">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>50.712383259581159</v>
       </c>
@@ -4052,7 +4286,7 @@
         <v>3.2150871103831795</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1</v>
       </c>
@@ -4080,8 +4314,11 @@
       <c r="I49">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>44.067708392923571</v>
       </c>
@@ -4110,7 +4347,7 @@
         <v>4.2271125760029467</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1</v>
       </c>
@@ -4138,8 +4375,11 @@
       <c r="I51">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50.712383259581159</v>
       </c>
@@ -4168,7 +4408,7 @@
         <v>3.2150871103831795</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1</v>
       </c>
@@ -4196,8 +4436,11 @@
       <c r="I53">
         <v>9</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>63.584088159899153</v>
       </c>
@@ -4226,7 +4469,7 @@
         <v>2.3158903752377573</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1</v>
       </c>
@@ -4254,8 +4497,11 @@
       <c r="I55">
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J55" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>37.164980008467751</v>
       </c>
@@ -4284,7 +4530,7 @@
         <v>2.5248633465278396</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1</v>
       </c>
@@ -4312,8 +4558,11 @@
       <c r="I57">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J57" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>37.164980008467751</v>
       </c>
@@ -4342,7 +4591,7 @@
         <v>2.5248633465278396</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1</v>
       </c>
@@ -4370,8 +4619,11 @@
       <c r="I59">
         <v>9</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J59" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>51.448194401540945</v>
       </c>
